--- a/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
+++ b/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C2" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>1.88</v>
       </c>
       <c r="E2" t="n">
-        <v>14.08</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C3" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>1.85</v>
       </c>
       <c r="E3" t="n">
-        <v>10.71</v>
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58.15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
+++ b/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C2" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>1.88</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="n">
-        <v>31.79</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>1.85</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="n">
-        <v>21.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>58.15</v>
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
+++ b/Data/Bank_churn/Images/KNN_ValidationCurve_distance.xlsx
@@ -474,7 +474,7 @@
         <v>0.05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0.05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
